--- a/biology/Médecine/Haute_École_de_santé_Genève/Haute_École_de_santé_Genève.xlsx
+++ b/biology/Médecine/Haute_École_de_santé_Genève/Haute_École_de_santé_Genève.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Haute_%C3%89cole_de_sant%C3%A9_Gen%C3%A8ve</t>
+          <t>Haute_École_de_santé_Genève</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Haute école de santé Genève (HEdS-Genève) est une université de sciences appliquées située à Genève, en Suisse. Cette école est rattachée à la Haute école spécialisée de Suisse occidentale (HES-SO). 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Haute_%C3%89cole_de_sant%C3%A9_Gen%C3%A8ve</t>
+          <t>Haute_École_de_santé_Genève</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'école de soins infirmiers Bon Secours est créé en 1905 par Marguerite Champendal et devient en 2004, la Haute école de santé de Genève. 
 Plus grande école de santé de Suisse romande, elle forme des professionnels de santé hautement qualifiés, capables de répondre aux exigences de la pratique de soins d'aujourd'hui et de demain.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Haute_%C3%89cole_de_sant%C3%A9_Gen%C3%A8ve</t>
+          <t>Haute_École_de_santé_Genève</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,15 +560,17 @@
           <t>Direction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Antoinette de Coulon de 1945 à 1948[1]
-Marjorie Duvillard de 1948 à 1968[2]
-Jacqueline Demaurex de 1968 à 1976 [3]
-Rosette Poletti de 1976 à 1984[1]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Antoinette de Coulon de 1945 à 1948
+Marjorie Duvillard de 1948 à 1968
+Jacqueline Demaurex de 1968 à 1976 
+Rosette Poletti de 1976 à 1984
 Anna Moria Venetz de 1984 à 1988
-Marie-Thérèse Engelberts de 1988 à 1999 [4]
-Francoise Bonvallat de 1999[5]
+Marie-Thérèse Engelberts de 1988 à 1999 
+Francoise Bonvallat de 1999
 Jacques Dunant  jusqu'en 2011
 Daniel Petitmermet de 2011 à 2018
 Marie-Laure Kaiser depuis 2018
@@ -568,7 +584,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Haute_%C3%89cole_de_sant%C3%A9_Gen%C3%A8ve</t>
+          <t>Haute_École_de_santé_Genève</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -586,7 +602,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Site officiel</t>
         </is>
